--- a/doc/标准库国家计算结果（默认版本）/机构数据307473238584/出生队列接种率/截止2025-01-31 出生队列接种率.xlsx
+++ b/doc/标准库国家计算结果（默认版本）/机构数据307473238584/出生队列接种率/截止2025-01-31 出生队列接种率.xlsx
@@ -679,7 +679,7 @@
     <row r="2" customHeight="true" ht="35.0">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>查询条件   地区:   全 国   |    出生截止时间:   2025-01  月末   |    出生队列数来源:   系统报告   |    出生队列:   1岁  2岁  3岁  4岁  5岁  6岁  7岁  8岁  9岁  10岁  11岁  12岁  13岁  14岁  15岁  16岁  17岁  18岁   |    数据类型:   交换数据   |    上传截止日期:   2025-11-03  （有效数据为交换上传时间早于所选日期当日 23 时 59 分 59 秒;）   |</t>
+          <t>查询条件   地区:   全 国   |    出生截止时间:   2025-01  月末   |    出生队列数来源:   系统报告   |    出生队列:   1岁  2岁  3岁  4岁  5岁  6岁  7岁  8岁  9岁  10岁  11岁  12岁  13岁  14岁  15岁  16岁  17岁  18岁   |    数据类型:   交换数据   |    上传截止日期:   2025-11-04  （有效数据为交换上传时间早于所选日期当日 23 时 59 分 59 秒;）   |</t>
         </is>
       </c>
       <c r="B2" s="4"/>
@@ -723,7 +723,7 @@
     <row r="3" customHeight="true" ht="35.0">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>导出时间: 2025-11-04 15:19:42</t>
+          <t>导出时间: 2025-11-05 14:36:58</t>
         </is>
       </c>
       <c r="B3" s="4"/>
@@ -1190,109 +1190,109 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="9" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>194</t>
         </is>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="9" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>208</t>
         </is>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="9" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>319</t>
         </is>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="9" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>352</t>
         </is>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="9" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>410</t>
         </is>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="9" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>453</t>
         </is>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="9" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>395</t>
         </is>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="9" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>483</t>
         </is>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="9" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>450</t>
         </is>
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="9" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>546</t>
         </is>
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="9" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF7" s="5"/>
       <c r="AG7" s="9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AH7" s="5"/>
       <c r="AI7" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AL7" s="5"/>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="AD32" s="9" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="AE32" s="9" t="inlineStr">
